--- a/data/395_P_label_case.xlsx
+++ b/data/395_P_label_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,118 +1110,6 @@
         <v>0.001549327833389645</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>0.8125600000000001</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.001370183102412766</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>0.8261700000000001</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.001202128168559949</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>0.83999</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.001036063147463585</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>0.8538100000000001</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.0008821002647240333</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>0.8676299999999999</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.0007391356030791617</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>0.88145</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.0006068020083702756</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>0.8952700000000001</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.0004847330793965858</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>0.90922</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.0003716148789618446</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>0.92317</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.0002723159506302419</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>0.9371200000000001</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.0001867843807763861</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>0.9510700000000001</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.0001157746405203061</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>0.9650200000000001</v>
-      </c>
-      <c r="B96" t="n">
-        <v>6.027862821974349e-05</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>0.97901</v>
-      </c>
-      <c r="B97" t="n">
-        <v>2.134193965439583e-05</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>0.993</v>
-      </c>
-      <c r="B98" t="n">
-        <v>1.142486508902294e-06</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
